--- a/packages/模块进度.xlsx
+++ b/packages/模块进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\project\js\AnJsflScript-ts\packages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4700D5D-BE97-450E-9BDD-948358770B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A9361E-7CAE-478F-818B-A002EC0B3662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原anjsfl" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="487">
   <si>
     <t xml:space="preserve">    file/</t>
   </si>
@@ -308,9 +308,6 @@
     <t xml:space="preserve">        StrokeDefinitions.jsfl</t>
   </si>
   <si>
-    <t xml:space="preserve">    Context/</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Element/</t>
   </si>
   <si>
@@ -474,9 +471,6 @@
   </si>
   <si>
     <t>Framework/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    KeyFrameMode.jsfl</t>
   </si>
   <si>
     <t xml:space="preserve">    Tips.jsfl</t>
@@ -596,15 +590,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Events/   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    super/   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Table/   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    template/   </t>
   </si>
   <si>
     <t xml:space="preserve">    UI/   </t>
@@ -8355,13 +8340,51 @@
   <si>
     <t xml:space="preserve">        promptUtil.jsfl</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    parser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    tween</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    KeyFrameMode.jsfl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Context/   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Context/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    super/   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>super</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoreElement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8411,8 +8434,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="15.8"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="小南同学（非商用）"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8437,6 +8467,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -8450,7 +8486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8466,6 +8502,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8748,8 +8788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:I88"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -8774,435 +8814,570 @@
     </row>
     <row r="7" spans="3:9" ht="19.5">
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="19.5">
       <c r="C8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="3:9" ht="19.5">
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="19.5">
       <c r="C10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="3:9" ht="19.5">
       <c r="C11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="3:9" ht="19.5">
       <c r="C12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="13" spans="3:9" ht="19.5">
       <c r="C13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="14" spans="3:9" ht="19.5">
       <c r="C14" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="3:9" ht="19.5">
       <c r="C15" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="3:9" ht="19.5">
       <c r="C16" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" ht="19.5">
+        <v>96</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="19.5">
       <c r="C17" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" ht="19.5">
+        <v>97</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="19.5">
       <c r="C18" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" ht="19.5">
+        <v>98</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="19.5">
       <c r="C19" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" ht="19.5">
+        <v>99</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="19.5">
       <c r="C20" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" ht="19.5">
+        <v>100</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="19.5">
       <c r="C21" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" ht="19.5">
+        <v>101</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="19.5">
       <c r="C22" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" ht="19.5">
+        <v>102</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="19.5">
       <c r="C23" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" ht="19.5">
+        <v>103</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="19.5">
       <c r="C24" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" ht="19.5">
+        <v>104</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="19.5">
       <c r="C25" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" ht="19.5">
+        <v>105</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="19.5">
       <c r="C26" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" ht="19.5">
+        <v>106</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="19.5">
       <c r="C27" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" ht="19.5">
+        <v>107</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="19.5">
       <c r="C28" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" ht="19.5">
+        <v>108</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="19.5">
       <c r="C29" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" ht="19.5">
+        <v>109</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="19.5">
       <c r="C30" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" ht="19.5">
+        <v>110</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="19.5">
       <c r="C31" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" ht="19.5">
+        <v>111</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="19.5">
       <c r="C32" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" ht="19.5">
+        <v>112</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="19.5">
       <c r="C33" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" ht="19.5">
+        <v>113</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="19.5">
       <c r="C34" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" ht="19.5">
+        <v>114</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="19.5">
       <c r="C35" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" ht="19.5">
+        <v>115</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="19.5">
       <c r="C36" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" ht="19.5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="19.5">
       <c r="C37" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" ht="19.5">
+        <v>117</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="19.5">
       <c r="C38" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" ht="19.5">
+        <v>118</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="19.5">
       <c r="C39" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" ht="19.5">
+        <v>119</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" ht="19.5">
       <c r="C40" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" ht="19.5">
+        <v>120</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" ht="19.5">
       <c r="C41" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" ht="19.5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" ht="19.5">
       <c r="C42" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" ht="19.5">
+        <v>122</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" ht="19.5">
       <c r="C43" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" ht="19.5">
+        <v>123</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" ht="19.5">
       <c r="C44" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" ht="19.5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" ht="19.5">
       <c r="C45" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3" ht="19.5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" ht="19.5">
       <c r="C46" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" ht="19.5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" ht="19.5">
       <c r="C47" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" ht="19.5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" ht="19.5">
       <c r="C48" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" ht="19.5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" ht="19.5">
       <c r="C49" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" ht="19.5">
+        <v>132</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" ht="19.5">
       <c r="C50" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" ht="19.5">
+        <v>133</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" ht="19.5">
       <c r="C51" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" ht="19.5">
+        <v>134</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" ht="19.5">
       <c r="C52" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" ht="19.5">
+        <v>135</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" ht="19.5">
       <c r="C53" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" ht="19.5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" ht="20.5">
       <c r="C54" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" ht="19.5">
+        <v>137</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" ht="19.5">
       <c r="C55" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" ht="19.5">
+        <v>138</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" ht="19.5">
       <c r="C56" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" ht="19.5">
+      <c r="C57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" ht="19.5">
+      <c r="C58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" ht="19.5">
+      <c r="C59" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" ht="19.5">
+      <c r="C60" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" ht="19.5">
+      <c r="C61" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" ht="19.5">
+      <c r="C62" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="57" spans="3:3" ht="19.5">
-      <c r="C57" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" ht="19.5">
-      <c r="C58" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" ht="19.5">
-      <c r="C59" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" ht="19.5">
-      <c r="C60" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" ht="19.5">
-      <c r="C61" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" ht="19.5">
-      <c r="C62" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" ht="19.5">
+    <row r="63" spans="3:9" ht="19.5">
       <c r="C63" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3" ht="19.5">
+        <v>143</v>
+      </c>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="3:9" ht="19.5">
       <c r="C64" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="3:9" ht="19.5">
       <c r="C65" s="1" t="s">
-        <v>138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="3:9" ht="19.5">
       <c r="C66" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="3:9" ht="19.5">
       <c r="C67" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="3:9" ht="19.5">
       <c r="C68" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="3:9" ht="19.5">
       <c r="C69" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="3:9" ht="19.5">
       <c r="C70" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="3:9" ht="19.5">
       <c r="C71" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="I71" s="3"/>
     </row>
     <row r="72" spans="3:9" ht="19.5">
       <c r="C72" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="3:9" ht="19.5">
       <c r="C73" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="3:9" ht="19.5">
       <c r="C74" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I74" s="5"/>
+        <v>153</v>
+      </c>
     </row>
     <row r="75" spans="3:9" ht="19.5">
       <c r="C75" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="3:9" ht="19.5">
       <c r="C76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="3:9" ht="19.5">
       <c r="C77" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I77" s="5"/>
+        <v>156</v>
+      </c>
+      <c r="I77" s="3"/>
     </row>
     <row r="78" spans="3:9" ht="19.5">
       <c r="C78" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I78" s="5"/>
+        <v>81</v>
+      </c>
     </row>
     <row r="79" spans="3:9" ht="19.5">
       <c r="C79" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I79" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="80" spans="3:9" ht="19.5">
       <c r="C80" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I80" s="5"/>
+        <v>83</v>
+      </c>
     </row>
     <row r="81" spans="3:9" ht="19.5">
       <c r="C81" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="I81" s="3"/>
     </row>
     <row r="82" spans="3:9" ht="19.5">
       <c r="C82" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="I82" s="5"/>
     </row>
     <row r="83" spans="3:9" ht="19.5">
       <c r="C83" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="I83" s="5"/>
     </row>
     <row r="84" spans="3:9" ht="19.5">
       <c r="C84" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>163</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="I84" s="5"/>
     </row>
     <row r="85" spans="3:9" ht="19.5">
       <c r="C85" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="3:9" ht="19.5">
       <c r="C86" s="1" t="s">
-        <v>156</v>
+        <v>476</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>71</v>
+        <v>477</v>
       </c>
     </row>
     <row r="87" spans="3:9" ht="19.5">
       <c r="C87" s="1" t="s">
-        <v>157</v>
+        <v>129</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="88" spans="3:9" ht="19.5">
       <c r="C88" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I88" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>477</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9215,8 +9390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B89151-02C7-48C9-9D11-0369B9ADFAE3}">
   <dimension ref="C4:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -9497,6 +9672,7 @@
       <c r="D43" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="3:5" ht="21">
       <c r="D44" s="2" t="s">
@@ -9510,6 +9686,7 @@
       <c r="D45" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="3:5" ht="21">
       <c r="D46" s="2" t="s">
@@ -9654,165 +9831,184 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29BB500-F51A-4269-B6E7-D25BB2E2A352}">
-  <dimension ref="C4:F27"/>
+  <dimension ref="C4:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="4" spans="3:6" ht="19.5">
       <c r="C4" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="3:6" ht="19.5">
       <c r="C5" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="19.5">
       <c r="C6" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="3:6" ht="19.5">
       <c r="C7" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="3:6" ht="19.5">
       <c r="C8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="3:6" ht="19.5">
       <c r="C9" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="3:6" ht="19.5">
       <c r="C10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+        <v>479</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="3:6" ht="19.5">
       <c r="C11" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" ht="19.5">
-      <c r="C12" s="1" t="s">
-        <v>172</v>
+        <v>482</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="3:6" ht="20.5">
+      <c r="C12" s="10" t="s">
+        <v>486</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="3:6" ht="19.5">
       <c r="C13" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+        <v>167</v>
+      </c>
     </row>
     <row r="14" spans="3:6" ht="19.5">
       <c r="C14" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="3:6" ht="19.5">
       <c r="C15" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+        <v>169</v>
+      </c>
     </row>
     <row r="16" spans="3:6" ht="19.5">
       <c r="C16" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="3:6" ht="19.5">
       <c r="C17" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="3:6" ht="19.5">
       <c r="C18" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="3:6" ht="19.5">
       <c r="C19" s="1" t="s">
-        <v>179</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="3:6" ht="19.5">
       <c r="C20" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="3:6" ht="19.5">
       <c r="C21" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="19.5">
       <c r="C22" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="3:6" ht="19.5">
       <c r="C23" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>177</v>
+      </c>
     </row>
     <row r="24" spans="3:6" ht="19.5">
       <c r="C24" s="1" t="s">
-        <v>184</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="3:6" ht="19.5">
       <c r="C25" s="1" t="s">
-        <v>185</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="3:6" ht="19.5">
       <c r="C26" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="3:6" ht="19.5">
       <c r="C27" s="1" t="s">
-        <v>187</v>
+        <v>484</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="3:6" ht="19.5">
+      <c r="C28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="3:6" ht="19.5">
+      <c r="C29" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -9825,8 +10021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DB9018-715A-4800-BFB2-74AD5C409587}">
   <dimension ref="C4:H294"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A151" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -9836,1460 +10032,1460 @@
   <sheetData>
     <row r="4" spans="3:8">
       <c r="G4" s="6" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="3:8" ht="19.5">
       <c r="C5" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="19.5">
       <c r="C6" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="19.5">
       <c r="C7" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="3:8" ht="19.5">
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="3:8" ht="19.5">
       <c r="C9" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="19.5">
       <c r="C10" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="19.5">
       <c r="C11" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="3:8" ht="19.5">
       <c r="C12" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="19.5">
       <c r="C13" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="19.5">
       <c r="C14" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="3:8" ht="19.5">
       <c r="C15" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="3:8" ht="19.5">
       <c r="C16" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="19.5">
       <c r="C17" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="20.5">
       <c r="C18" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="3:3" ht="19.5">
       <c r="C19" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="19.5">
       <c r="C20" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="3:3" ht="19.5">
       <c r="C21" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="3:3" ht="19.5">
       <c r="C22" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="3:3" ht="19.5">
       <c r="C23" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="3:3" ht="19.5">
       <c r="C24" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="3:3" ht="19.5">
       <c r="C25" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="3:3" ht="19.5">
       <c r="C26" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="3:3" ht="19.5">
       <c r="C27" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="3:3" ht="19.5">
       <c r="C28" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="3:3" ht="19.5">
       <c r="C29" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="3:3" ht="19.5">
       <c r="C30" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="3:3" ht="19.5">
       <c r="C31" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="3:3" ht="19.5">
       <c r="C32" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="3:3" ht="19.5">
       <c r="C33" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="3:3" ht="19.5">
       <c r="C34" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="3:3" ht="19.5">
       <c r="C35" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="3:3" ht="19.5">
       <c r="C36" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="3:3" ht="19.5">
       <c r="C37" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="3:3" ht="19.5">
       <c r="C38" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="3:3" ht="19.5">
       <c r="C39" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="3:3" ht="19.5">
       <c r="C40" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="3:3" ht="19.5">
       <c r="C41" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="3:3" ht="19.5">
       <c r="C42" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="3:3" ht="19.5">
       <c r="C43" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="3:3" ht="19.5">
       <c r="C44" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="3:3" ht="19.5">
       <c r="C45" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="3:3" ht="19.5">
       <c r="C46" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="3:3" ht="19.5">
       <c r="C47" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="3:3" ht="19.5">
       <c r="C48" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="3:3" ht="19.5">
       <c r="C49" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="3:3" ht="19.5">
       <c r="C50" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="3:3" ht="19.5">
       <c r="C51" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="3:3" ht="19.5">
       <c r="C52" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="3:3" ht="19.5">
       <c r="C53" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="3:3" ht="19.5">
       <c r="C54" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="3:3" ht="19.5">
       <c r="C55" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="3:3" ht="19.5">
       <c r="C56" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="3:3" ht="19.5">
       <c r="C57" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="3:3" ht="19.5">
       <c r="C58" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="3:3" ht="19.5">
       <c r="C59" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="3:3" ht="19.5">
       <c r="C60" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="3:3" ht="19.5">
       <c r="C61" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="3:3" ht="19.5">
       <c r="C62" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="3:3" ht="19.5">
       <c r="C63" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="3:3" ht="19.5">
       <c r="C64" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="3:3" ht="19.5">
       <c r="C65" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="3:3" ht="19.5">
       <c r="C66" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="3:3" ht="19.5">
       <c r="C67" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="3:3" ht="19.5">
       <c r="C68" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="3:3" ht="19.5">
       <c r="C69" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="3:3" ht="19.5">
       <c r="C70" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="3:3" ht="19.5">
       <c r="C71" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="3:3" ht="19.5">
       <c r="C72" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="3:3" ht="19.5">
       <c r="C73" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="3:3" ht="19.5">
       <c r="C74" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="3:3" ht="19.5">
       <c r="C75" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="3:3" ht="19.5">
       <c r="C76" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="3:3" ht="19.5">
       <c r="C77" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="3:3" ht="19.5">
       <c r="C78" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="3:3" ht="19.5">
       <c r="C79" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="3:3" ht="19.5">
       <c r="C80" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="3:3" ht="19.5">
       <c r="C81" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="3:3" ht="19.5">
       <c r="C82" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="3:3" ht="19.5">
       <c r="C83" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="3:3" ht="19.5">
       <c r="C84" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="3:3" ht="19.5">
       <c r="C85" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="3:3" ht="19.5">
       <c r="C86" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="3:3" ht="19.5">
       <c r="C87" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="3:3" ht="19.5">
       <c r="C88" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="3:3" ht="19.5">
       <c r="C89" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="3:3" ht="19.5">
       <c r="C90" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="91" spans="3:3" ht="19.5">
       <c r="C91" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="3:3" ht="19.5">
       <c r="C92" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="93" spans="3:3" ht="19.5">
       <c r="C93" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" spans="3:3" ht="19.5">
       <c r="C94" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" spans="3:3" ht="19.5">
       <c r="C95" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" spans="3:3" ht="19.5">
       <c r="C96" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="3:3" ht="19.5">
       <c r="C97" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" spans="3:3" ht="19.5">
       <c r="C98" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="3:3" ht="19.5">
       <c r="C99" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="3:3" ht="19.5">
       <c r="C100" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="3:3" ht="19.5">
       <c r="C101" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="3:3" ht="19.5">
       <c r="C102" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="3:3" ht="19.5">
       <c r="C103" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="3:3" ht="19.5">
       <c r="C104" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="105" spans="3:3" ht="19.5">
       <c r="C105" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="3:3" ht="19.5">
       <c r="C106" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="107" spans="3:3" ht="19.5">
       <c r="C107" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="108" spans="3:3" ht="19.5">
       <c r="C108" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="109" spans="3:3" ht="19.5">
       <c r="C109" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110" spans="3:3" ht="19.5">
       <c r="C110" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="111" spans="3:3" ht="19.5">
       <c r="C111" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="112" spans="3:3" ht="19.5">
       <c r="C112" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="113" spans="3:3" ht="19.5">
       <c r="C113" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="114" spans="3:3" ht="19.5">
       <c r="C114" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="115" spans="3:3" ht="19.5">
       <c r="C115" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="116" spans="3:3" ht="19.5">
       <c r="C116" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="3:3" ht="19.5">
       <c r="C117" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" spans="3:3" ht="19.5">
       <c r="C118" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="119" spans="3:3" ht="19.5">
       <c r="C119" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="120" spans="3:3" ht="19.5">
       <c r="C120" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="121" spans="3:3" ht="19.5">
       <c r="C121" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="3:3" ht="19.5">
       <c r="C122" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" spans="3:3" ht="19.5">
       <c r="C123" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="124" spans="3:3" ht="19.5">
       <c r="C124" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="125" spans="3:3" ht="19.5">
       <c r="C125" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="126" spans="3:3" ht="19.5">
       <c r="C126" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="127" spans="3:3" ht="19.5">
       <c r="C127" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="128" spans="3:3" ht="19.5">
       <c r="C128" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="129" spans="3:3" ht="19.5">
       <c r="C129" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="130" spans="3:3" ht="19.5">
       <c r="C130" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="131" spans="3:3" ht="19.5">
       <c r="C131" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="132" spans="3:3" ht="19.5">
       <c r="C132" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="133" spans="3:3" ht="19.5">
       <c r="C133" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="134" spans="3:3" ht="19.5">
       <c r="C134" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="135" spans="3:3" ht="19.5">
       <c r="C135" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="136" spans="3:3" ht="19.5">
       <c r="C136" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="137" spans="3:3" ht="19.5">
       <c r="C137" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="138" spans="3:3" ht="19.5">
       <c r="C138" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="139" spans="3:3" ht="19.5">
       <c r="C139" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="140" spans="3:3" ht="19.5">
       <c r="C140" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="141" spans="3:3" ht="19.5">
       <c r="C141" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="142" spans="3:3" ht="19.5">
       <c r="C142" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="143" spans="3:3" ht="19.5">
       <c r="C143" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="144" spans="3:3" ht="19.5">
       <c r="C144" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="145" spans="3:3" ht="19.5">
       <c r="C145" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="146" spans="3:3" ht="19.5">
       <c r="C146" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="147" spans="3:3" ht="19.5">
       <c r="C147" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="148" spans="3:3" ht="19.5">
       <c r="C148" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="149" spans="3:3" ht="19.5">
       <c r="C149" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="150" spans="3:3" ht="19.5">
       <c r="C150" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="151" spans="3:3" ht="19.5">
       <c r="C151" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="152" spans="3:3" ht="19.5">
       <c r="C152" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="153" spans="3:3" ht="19.5">
       <c r="C153" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="154" spans="3:3" ht="19.5">
       <c r="C154" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="155" spans="3:3" ht="19.5">
       <c r="C155" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="156" spans="3:3" ht="19.5">
       <c r="C156" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="157" spans="3:3" ht="19.5">
       <c r="C157" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="158" spans="3:3" ht="19.5">
       <c r="C158" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="159" spans="3:3" ht="19.5">
       <c r="C159" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="160" spans="3:3" ht="19.5">
       <c r="C160" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="161" spans="3:3" ht="19.5">
       <c r="C161" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="162" spans="3:3" ht="19.5">
       <c r="C162" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="163" spans="3:3" ht="19.5">
       <c r="C163" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="164" spans="3:3" ht="19.5">
       <c r="C164" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="165" spans="3:3" ht="19.5">
       <c r="C165" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="166" spans="3:3" ht="19.5">
       <c r="C166" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="167" spans="3:3" ht="19.5">
       <c r="C167" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="168" spans="3:3" ht="19.5">
       <c r="C168" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="169" spans="3:3" ht="19.5">
       <c r="C169" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="170" spans="3:3" ht="19.5">
       <c r="C170" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="171" spans="3:3" ht="19.5">
       <c r="C171" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="172" spans="3:3" ht="19.5">
       <c r="C172" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="173" spans="3:3" ht="19.5">
       <c r="C173" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="174" spans="3:3" ht="19.5">
       <c r="C174" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="175" spans="3:3" ht="19.5">
       <c r="C175" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="176" spans="3:3" ht="19.5">
       <c r="C176" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="177" spans="3:3" ht="19.5">
       <c r="C177" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="178" spans="3:3" ht="19.5">
       <c r="C178" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="179" spans="3:3" ht="19.5">
       <c r="C179" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="180" spans="3:3" ht="19.5">
       <c r="C180" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="181" spans="3:3" ht="19.5">
       <c r="C181" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="182" spans="3:3" ht="19.5">
       <c r="C182" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="183" spans="3:3" ht="19.5">
       <c r="C183" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="184" spans="3:3" ht="19.5">
       <c r="C184" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="185" spans="3:3" ht="19.5">
       <c r="C185" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="3:3" ht="19.5">
       <c r="C186" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="187" spans="3:3" ht="19.5">
       <c r="C187" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="188" spans="3:3" ht="19.5">
       <c r="C188" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="189" spans="3:3" ht="19.5">
       <c r="C189" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="190" spans="3:3" ht="19.5">
       <c r="C190" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="191" spans="3:3" ht="19.5">
       <c r="C191" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="192" spans="3:3" ht="19.5">
       <c r="C192" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="193" spans="3:3" ht="19.5">
       <c r="C193" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="194" spans="3:3" ht="19.5">
       <c r="C194" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="195" spans="3:3" ht="19.5">
       <c r="C195" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="196" spans="3:3" ht="19.5">
       <c r="C196" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="197" spans="3:3" ht="19.5">
       <c r="C197" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="198" spans="3:3" ht="19.5">
       <c r="C198" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="199" spans="3:3" ht="19.5">
       <c r="C199" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="200" spans="3:3" ht="19.5">
       <c r="C200" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="201" spans="3:3" ht="19.5">
       <c r="C201" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="202" spans="3:3" ht="19.5">
       <c r="C202" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="203" spans="3:3" ht="19.5">
       <c r="C203" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="204" spans="3:3" ht="19.5">
       <c r="C204" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="205" spans="3:3" ht="19.5">
       <c r="C205" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="206" spans="3:3" ht="19.5">
       <c r="C206" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="207" spans="3:3" ht="19.5">
       <c r="C207" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="208" spans="3:3" ht="19.5">
       <c r="C208" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="209" spans="3:3" ht="19.5">
       <c r="C209" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="210" spans="3:3" ht="19.5">
       <c r="C210" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="211" spans="3:3" ht="19.5">
       <c r="C211" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="212" spans="3:3" ht="19.5">
       <c r="C212" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="213" spans="3:3" ht="19.5">
       <c r="C213" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="214" spans="3:3" ht="19.5">
       <c r="C214" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="215" spans="3:3" ht="19.5">
       <c r="C215" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="216" spans="3:3" ht="19.5">
       <c r="C216" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="217" spans="3:3" ht="19.5">
       <c r="C217" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="218" spans="3:3" ht="19.5">
       <c r="C218" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="219" spans="3:3" ht="19.5">
       <c r="C219" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="220" spans="3:3" ht="19.5">
       <c r="C220" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="221" spans="3:3" ht="19.5">
       <c r="C221" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="222" spans="3:3" ht="19.5">
       <c r="C222" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="223" spans="3:3" ht="19.5">
       <c r="C223" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="224" spans="3:3" ht="19.5">
       <c r="C224" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="225" spans="3:3" ht="19.5">
       <c r="C225" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="226" spans="3:3" ht="19.5">
       <c r="C226" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="227" spans="3:3" ht="19.5">
       <c r="C227" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="228" spans="3:3" ht="19.5">
       <c r="C228" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="229" spans="3:3" ht="19.5">
       <c r="C229" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="230" spans="3:3" ht="19.5">
       <c r="C230" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="231" spans="3:3" ht="19.5">
       <c r="C231" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="232" spans="3:3" ht="19.5">
       <c r="C232" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="233" spans="3:3" ht="19.5">
       <c r="C233" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="234" spans="3:3" ht="19.5">
       <c r="C234" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="235" spans="3:3" ht="19.5">
       <c r="C235" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="236" spans="3:3" ht="19.5">
       <c r="C236" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="237" spans="3:3" ht="19.5">
       <c r="C237" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="238" spans="3:3" ht="19.5">
       <c r="C238" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="239" spans="3:3" ht="19.5">
       <c r="C239" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="240" spans="3:3" ht="19.5">
       <c r="C240" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="241" spans="3:3" ht="19.5">
       <c r="C241" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="242" spans="3:3" ht="19.5">
       <c r="C242" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="243" spans="3:3" ht="19.5">
       <c r="C243" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="244" spans="3:3" ht="19.5">
       <c r="C244" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="245" spans="3:3" ht="19.5">
       <c r="C245" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="246" spans="3:3" ht="19.5">
       <c r="C246" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="247" spans="3:3" ht="19.5">
       <c r="C247" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="248" spans="3:3" ht="19.5">
       <c r="C248" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="249" spans="3:3" ht="19.5">
       <c r="C249" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="250" spans="3:3" ht="19.5">
       <c r="C250" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="251" spans="3:3" ht="19.5">
       <c r="C251" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="252" spans="3:3" ht="19.5">
       <c r="C252" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="253" spans="3:3" ht="19.5">
       <c r="C253" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="254" spans="3:3" ht="19.5">
       <c r="C254" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="255" spans="3:3" ht="19.5">
       <c r="C255" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="256" spans="3:3" ht="19.5">
       <c r="C256" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="257" spans="3:3" ht="19.5">
       <c r="C257" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="258" spans="3:3" ht="19.5">
       <c r="C258" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="259" spans="3:3" ht="19.5">
       <c r="C259" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="260" spans="3:3" ht="19.5">
       <c r="C260" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="261" spans="3:3" ht="19.5">
       <c r="C261" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="262" spans="3:3" ht="19.5">
       <c r="C262" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="263" spans="3:3" ht="19.5">
       <c r="C263" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="264" spans="3:3" ht="19.5">
       <c r="C264" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="265" spans="3:3" ht="19.5">
       <c r="C265" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="266" spans="3:3" ht="19.5">
       <c r="C266" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="267" spans="3:3" ht="19.5">
       <c r="C267" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="268" spans="3:3" ht="19.5">
       <c r="C268" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="269" spans="3:3" ht="19.5">
       <c r="C269" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="270" spans="3:3" ht="19.5">
       <c r="C270" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="271" spans="3:3" ht="19.5">
       <c r="C271" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="272" spans="3:3" ht="19.5">
       <c r="C272" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="273" spans="3:3" ht="19.5">
       <c r="C273" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="274" spans="3:3" ht="19.5">
       <c r="C274" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="275" spans="3:3" ht="19.5">
       <c r="C275" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="276" spans="3:3" ht="19.5">
       <c r="C276" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="277" spans="3:3" ht="19.5">
       <c r="C277" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="278" spans="3:3" ht="19.5">
       <c r="C278" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="279" spans="3:3" ht="19.5">
       <c r="C279" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="280" spans="3:3" ht="19.5">
       <c r="C280" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="281" spans="3:3" ht="19.5">
       <c r="C281" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="282" spans="3:3" ht="19.5">
       <c r="C282" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="283" spans="3:3" ht="19.5">
       <c r="C283" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="284" spans="3:3" ht="19.5">
       <c r="C284" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="285" spans="3:3" ht="19.5">
       <c r="C285" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="286" spans="3:3" ht="19.5">
       <c r="C286" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="287" spans="3:3" ht="19.5">
       <c r="C287" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="288" spans="3:3" ht="19.5">
       <c r="C288" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="289" spans="3:3" ht="19.5">
       <c r="C289" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="290" spans="3:3" ht="19.5">
       <c r="C290" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="291" spans="3:3" ht="19.5">
       <c r="C291" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="292" spans="3:3" ht="19.5">
       <c r="C292" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="293" spans="3:3" ht="19.5">
       <c r="C293" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="294" spans="3:3" ht="19.5">
       <c r="C294" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/packages/模块进度.xlsx
+++ b/packages/模块进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\project\js\AnJsflScript-ts\packages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A9361E-7CAE-478F-818B-A002EC0B3662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C7E896-7787-4644-ACA2-355CCB7622F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原anjsfl" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="489">
   <si>
     <t xml:space="preserve">    file/</t>
   </si>
@@ -8378,6 +8378,12 @@
   </si>
   <si>
     <t>MoreElement</t>
+  </si>
+  <si>
+    <t>console.stack</t>
+  </si>
+  <si>
+    <t>console.table</t>
   </si>
 </sst>
 </file>
@@ -8788,7 +8794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -9390,8 +9396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B89151-02C7-48C9-9D11-0369B9ADFAE3}">
   <dimension ref="C4:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -9700,7 +9706,7 @@
       <c r="D47" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9758,7 +9764,7 @@
       <c r="D55" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9766,7 +9772,7 @@
       <c r="D56" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9774,7 +9780,7 @@
       <c r="D57" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9831,10 +9837,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29BB500-F51A-4269-B6E7-D25BB2E2A352}">
-  <dimension ref="C4:F29"/>
+  <dimension ref="C4:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -9873,8 +9879,8 @@
       <c r="C8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="3:6" ht="19.5">
       <c r="C9" s="1" t="s">
@@ -9914,102 +9920,122 @@
         <v>168</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="3:6" ht="19.5">
       <c r="C15" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="3:6" ht="19.5">
       <c r="C16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+        <v>488</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="3:6" ht="19.5">
-      <c r="C17" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="3:6" ht="19.5">
       <c r="C18" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+        <v>169</v>
+      </c>
     </row>
     <row r="19" spans="3:6" ht="19.5">
       <c r="C19" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="3:6" ht="19.5">
       <c r="C20" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="3:6" ht="19.5">
       <c r="C21" s="1" t="s">
-        <v>175</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="3:6" ht="19.5">
       <c r="C22" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="3:6" ht="19.5">
       <c r="C23" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="3:6" ht="19.5">
       <c r="C24" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="25" spans="3:6" ht="19.5">
       <c r="C25" s="1" t="s">
-        <v>179</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="E25" s="5"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="3:6" ht="19.5">
       <c r="C26" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+        <v>177</v>
+      </c>
     </row>
     <row r="27" spans="3:6" ht="19.5">
       <c r="C27" s="1" t="s">
-        <v>484</v>
+        <v>178</v>
       </c>
       <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="3:6" ht="19.5">
       <c r="C28" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+        <v>179</v>
+      </c>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="3:6" ht="19.5">
       <c r="C29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="3:6" ht="19.5">
+      <c r="C30" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="3:6" ht="19.5">
+      <c r="C31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="3:6" ht="19.5">
+      <c r="C32" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="E32" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/packages/模块进度.xlsx
+++ b/packages/模块进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\project\js\AnJsflScript-ts\packages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C7E896-7787-4644-ACA2-355CCB7622F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF7EEE9-AAFA-4B96-84E1-73A3F3632683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9839,8 +9839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29BB500-F51A-4269-B6E7-D25BB2E2A352}">
   <dimension ref="C4:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -9933,8 +9933,8 @@
       <c r="C16" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="3:6" ht="19.5">
       <c r="C17" s="1"/>
@@ -10036,6 +10036,7 @@
         <v>182</v>
       </c>
       <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/packages/模块进度.xlsx
+++ b/packages/模块进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\project\js\AnJsflScript-ts\packages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF7EEE9-AAFA-4B96-84E1-73A3F3632683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B8D3EE-3166-45EC-87D8-D26ABBE94539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9839,8 +9839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29BB500-F51A-4269-B6E7-D25BB2E2A352}">
   <dimension ref="C4:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -9879,7 +9879,7 @@
       <c r="C8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="3:6" ht="19.5">
@@ -9926,7 +9926,7 @@
       <c r="C15" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="3:6" ht="19.5">

--- a/packages/模块进度.xlsx
+++ b/packages/模块进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\project\js\AnJsflScript-ts\packages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B8D3EE-3166-45EC-87D8-D26ABBE94539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE13338-8062-4C01-9769-EFF360047EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="xjsfl" sheetId="2" r:id="rId2"/>
     <sheet name="当前模块" sheetId="3" r:id="rId3"/>
     <sheet name="功能代码" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="499">
   <si>
     <t xml:space="preserve">    file/</t>
   </si>
@@ -8384,13 +8385,68 @@
   </si>
   <si>
     <t>console.table</t>
+  </si>
+  <si>
+    <t>3, weakmap es6-collections</t>
+  </si>
+  <si>
+    <t>4,intl formatjs</t>
+  </si>
+  <si>
+    <t>5，progress</t>
+  </si>
+  <si>
+    <t>8,xul测试</t>
+  </si>
+  <si>
+    <t>9.test tape node test</t>
+  </si>
+  <si>
+    <t>10.Context 重写</t>
+  </si>
+  <si>
+    <t>1,action utility-types</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6,storejs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F0909"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改为局部，不要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F0909"/>
+        <rFont val="PT Serif"/>
+        <family val="1"/>
+      </rPr>
+      <t>cookie</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,reflect,proxy harmony-reflect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,circular  json flatted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8447,6 +8503,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F0909"/>
+      <name val="PT Serif"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F0909"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -8492,7 +8561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8510,6 +8579,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9839,8 +9911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29BB500-F51A-4269-B6E7-D25BB2E2A352}">
   <dimension ref="C4:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -10048,7 +10120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DB9018-715A-4800-BFB2-74AD5C409587}">
   <dimension ref="C4:H294"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A160" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
@@ -11520,4 +11592,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F352BAE6-08AF-4793-89CF-B233BC25CAF3}">
+  <dimension ref="C4:E13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="5" max="5" width="8.6640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5" ht="14.5">
+      <c r="C4" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="3:5" ht="14.5">
+      <c r="C5" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="3:5" ht="14.5">
+      <c r="C6" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="3:5" ht="14.5">
+      <c r="C7" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="3:5" ht="14.5">
+      <c r="C8" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="3:5" ht="14.5">
+      <c r="C9" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="3:5" ht="14.5">
+      <c r="C10" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="3:5" ht="14.5">
+      <c r="C11" s="11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="14.5">
+      <c r="C12" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="3:5" ht="14.5">
+      <c r="C13" s="11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>